--- a/som.xlsx
+++ b/som.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mila-Gus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pythongit\kinderen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D27BDFF-5AC0-4BAB-A6EC-E1AA54176B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D667878-1155-4A4D-AAFC-F1F3F3FB7E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E7FEF65-DD20-43B4-8C3B-52D27BE48BAE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E7FEF65-DD20-43B4-8C3B-52D27BE48BAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,12 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t xml:space="preserve"> +</t>
   </si>
   <si>
     <t xml:space="preserve"> =</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
   </si>
 </sst>
 </file>
@@ -92,7 +96,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -108,7 +112,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -404,19 +408,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47883DB9-B8BD-4A45-872D-46F7743C87FB}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1"/>
-    <col min="2" max="2" width="49.5703125" customWidth="1"/>
-    <col min="3" max="3" width="55.5703125" customWidth="1"/>
-    <col min="6" max="6" width="46.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.88671875" customWidth="1"/>
+    <col min="2" max="2" width="45.21875" customWidth="1"/>
+    <col min="3" max="3" width="47.21875" customWidth="1"/>
+    <col min="6" max="6" width="46.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -431,6 +437,24 @@
       </c>
       <c r="F1" s="1">
         <f>A1+C1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="175.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <f>A2-C2</f>
         <v>0</v>
       </c>
     </row>
